--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\RQSD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Source:</t>
   </si>
@@ -27,18 +32,12 @@
     <t>Qualifies for RPS</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -82,12 +81,24 @@
   </si>
   <si>
     <t>model user.  The example we include no longer treats biomass as an RPS-qualifying source.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +153,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -189,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,12 +458,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
@@ -465,27 +479,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
@@ -500,9 +514,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,7 +536,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -528,7 +544,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -536,7 +552,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -544,7 +560,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -552,7 +568,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -560,7 +576,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -568,7 +584,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -576,7 +592,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -584,7 +600,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -592,7 +608,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -600,10 +616,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -616,9 +648,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -636,7 +670,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -644,7 +678,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -652,7 +686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -660,7 +694,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -668,7 +702,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -676,7 +710,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -684,7 +718,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -692,15 +726,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -708,7 +742,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -716,10 +750,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
